--- a/data/PhytopathologyLab_5_2024.xlsx
+++ b/data/PhytopathologyLab_5_2024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/PhytopathologyLab_5_2024.xlsx
+++ b/data/PhytopathologyLab_5_2024.xlsx
@@ -500,7 +500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK14"/>
+  <dimension ref="A1:BI14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,8 +754,6 @@
       <c r="BG1" s="10" t="n"/>
       <c r="BH1" s="1" t="n"/>
       <c r="BI1" s="1" t="n"/>
-      <c r="BJ1" s="1" t="n"/>
-      <c r="BK1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
@@ -1055,20 +1053,10 @@
       </c>
       <c r="BH2" s="11" t="inlineStr">
         <is>
-          <t>Unnamed: 57</t>
+          <t>New Project 1</t>
         </is>
       </c>
       <c r="BI2" s="11" t="inlineStr">
-        <is>
-          <t>Unnamed: 58</t>
-        </is>
-      </c>
-      <c r="BJ2" s="11" t="inlineStr">
-        <is>
-          <t>New Project 1</t>
-        </is>
-      </c>
-      <c r="BK2" s="11" t="inlineStr">
         <is>
           <t>New Project 2</t>
         </is>
@@ -1258,14 +1246,8 @@
       <c r="BG3" s="1" t="n">
         <v>5.6</v>
       </c>
-      <c r="BH3" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BI3" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BJ3" s="1" t="n"/>
-      <c r="BK3" s="1" t="n"/>
+      <c r="BH3" s="1" t="n"/>
+      <c r="BI3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1451,14 +1433,8 @@
       <c r="BG4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="BH4" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BI4" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BJ4" s="1" t="n"/>
-      <c r="BK4" s="1" t="n"/>
+      <c r="BH4" s="1" t="n"/>
+      <c r="BI4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1644,14 +1620,8 @@
       <c r="BG5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="BH5" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BI5" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BJ5" s="1" t="n"/>
-      <c r="BK5" s="1" t="n"/>
+      <c r="BH5" s="1" t="n"/>
+      <c r="BI5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1837,14 +1807,8 @@
       <c r="BG6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="BH6" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BI6" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BJ6" s="1" t="n"/>
-      <c r="BK6" s="1" t="n"/>
+      <c r="BH6" s="1" t="n"/>
+      <c r="BI6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2030,14 +1994,8 @@
       <c r="BG7" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="BH7" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BI7" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BJ7" s="1" t="n"/>
-      <c r="BK7" s="1" t="n"/>
+      <c r="BH7" s="1" t="n"/>
+      <c r="BI7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2223,14 +2181,8 @@
       <c r="BG8" s="1" t="n">
         <v/>
       </c>
-      <c r="BH8" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BI8" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BJ8" s="1" t="n"/>
-      <c r="BK8" s="1" t="n"/>
+      <c r="BH8" s="1" t="n"/>
+      <c r="BI8" s="1" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2416,14 +2368,8 @@
       <c r="BG9" s="1" t="n">
         <v/>
       </c>
-      <c r="BH9" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BI9" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BJ9" s="1" t="n"/>
-      <c r="BK9" s="1" t="n"/>
+      <c r="BH9" s="1" t="n"/>
+      <c r="BI9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2609,14 +2555,8 @@
       <c r="BG10" s="1" t="n">
         <v/>
       </c>
-      <c r="BH10" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BI10" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BJ10" s="1" t="n"/>
-      <c r="BK10" s="1" t="n"/>
+      <c r="BH10" s="1" t="n"/>
+      <c r="BI10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2802,14 +2742,8 @@
       <c r="BG11" s="1" t="n">
         <v/>
       </c>
-      <c r="BH11" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BI11" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BJ11" s="1" t="n"/>
-      <c r="BK11" s="1" t="n"/>
+      <c r="BH11" s="1" t="n"/>
+      <c r="BI11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2995,14 +2929,8 @@
       <c r="BG12" s="1" t="n">
         <v/>
       </c>
-      <c r="BH12" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BI12" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BJ12" s="1" t="n"/>
-      <c r="BK12" s="1" t="n"/>
+      <c r="BH12" s="1" t="n"/>
+      <c r="BI12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3188,14 +3116,8 @@
       <c r="BG13" s="1" t="n">
         <v/>
       </c>
-      <c r="BH13" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BI13" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BJ13" s="1" t="n"/>
-      <c r="BK13" s="1" t="n"/>
+      <c r="BH13" s="1" t="n"/>
+      <c r="BI13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3381,14 +3303,8 @@
       <c r="BG14" s="1" t="n">
         <v/>
       </c>
-      <c r="BH14" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BI14" s="1" t="n">
-        <v/>
-      </c>
-      <c r="BJ14" s="1" t="n"/>
-      <c r="BK14" s="1" t="n"/>
+      <c r="BH14" s="1" t="n"/>
+      <c r="BI14" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/PhytopathologyLab_5_2024.xlsx
+++ b/data/PhytopathologyLab_5_2024.xlsx
@@ -500,7 +500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI14"/>
+  <dimension ref="A1:BJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,10 +750,15 @@
           <t>B72/20 - Casterra.5</t>
         </is>
       </c>
-      <c r="BF1" s="9" t="n"/>
+      <c r="BF1" s="9" t="inlineStr">
+        <is>
+          <t>B72/20 - Casterra.6</t>
+        </is>
+      </c>
       <c r="BG1" s="10" t="n"/>
       <c r="BH1" s="1" t="n"/>
       <c r="BI1" s="1" t="n"/>
+      <c r="BJ1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
@@ -1038,25 +1043,30 @@
       </c>
       <c r="BE2" s="11" t="inlineStr">
         <is>
+          <t xml:space="preserve">P406 - Casterra Developing new varieties </t>
+        </is>
+      </c>
+      <c r="BF2" s="11" t="inlineStr">
+        <is>
           <t>P999 - General2</t>
         </is>
       </c>
-      <c r="BF2" s="11" t="inlineStr">
+      <c r="BG2" s="11" t="inlineStr">
         <is>
           <t>OH</t>
         </is>
       </c>
-      <c r="BG2" s="11" t="inlineStr">
+      <c r="BH2" s="11" t="inlineStr">
         <is>
           <t>P0 - Vacation / Sickness</t>
         </is>
       </c>
-      <c r="BH2" s="11" t="inlineStr">
+      <c r="BI2" s="11" t="inlineStr">
         <is>
           <t>New Project 1</t>
         </is>
       </c>
-      <c r="BI2" s="11" t="inlineStr">
+      <c r="BJ2" s="11" t="inlineStr">
         <is>
           <t>New Project 2</t>
         </is>
@@ -1065,13 +1075,13 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B3" s="12" t="n"/>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr">
@@ -1096,12 +1106,8 @@
           <t>2024-01</t>
         </is>
       </c>
-      <c r="J3" s="12" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K3" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" s="12" t="n"/>
+      <c r="K3" s="12" t="n"/>
       <c r="L3" s="1" t="n">
         <v/>
       </c>
@@ -1241,24 +1247,27 @@
         <v/>
       </c>
       <c r="BF3" s="1" t="n">
+        <v/>
+      </c>
+      <c r="BG3" s="1" t="n">
         <v>3.68</v>
       </c>
-      <c r="BG3" s="1" t="n">
+      <c r="BH3" s="1" t="n">
         <v>5.6</v>
       </c>
-      <c r="BH3" s="1" t="n"/>
       <c r="BI3" s="1" t="n"/>
+      <c r="BJ3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B4" s="12" t="n"/>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr">
@@ -1283,12 +1292,8 @@
           <t>2024-02</t>
         </is>
       </c>
-      <c r="J4" s="12" t="n">
-        <v>16</v>
-      </c>
-      <c r="K4" s="12" t="n">
-        <v>-5</v>
-      </c>
+      <c r="J4" s="12" t="n"/>
+      <c r="K4" s="12" t="n"/>
       <c r="L4" s="1" t="n">
         <v/>
       </c>
@@ -1428,24 +1433,27 @@
         <v/>
       </c>
       <c r="BF4" s="1" t="n">
+        <v/>
+      </c>
+      <c r="BG4" s="1" t="n">
         <v>3.2</v>
       </c>
-      <c r="BG4" s="1" t="n">
+      <c r="BH4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="BH4" s="1" t="n"/>
       <c r="BI4" s="1" t="n"/>
+      <c r="BJ4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B5" s="12" t="n"/>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D5" s="12" t="inlineStr">
@@ -1470,12 +1478,8 @@
           <t>2024-03</t>
         </is>
       </c>
-      <c r="J5" s="12" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="K5" s="12" t="n">
-        <v>-2.999999999999996</v>
-      </c>
+      <c r="J5" s="12" t="n"/>
+      <c r="K5" s="12" t="n"/>
       <c r="L5" s="1" t="n">
         <v/>
       </c>
@@ -1615,24 +1619,27 @@
         <v/>
       </c>
       <c r="BF5" s="1" t="n">
+        <v/>
+      </c>
+      <c r="BG5" s="1" t="n">
         <v>3.36</v>
       </c>
-      <c r="BG5" s="1" t="n">
+      <c r="BH5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="BH5" s="1" t="n"/>
       <c r="BI5" s="1" t="n"/>
+      <c r="BJ5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B6" s="12" t="n"/>
       <c r="C6" s="12" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D6" s="12" t="inlineStr">
@@ -1657,12 +1664,8 @@
           <t>2024-04</t>
         </is>
       </c>
-      <c r="J6" s="12" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K6" s="12" t="n">
-        <v>-2</v>
-      </c>
+      <c r="J6" s="12" t="n"/>
+      <c r="K6" s="12" t="n"/>
       <c r="L6" s="1" t="n">
         <v/>
       </c>
@@ -1802,24 +1805,27 @@
         <v/>
       </c>
       <c r="BF6" s="1" t="n">
+        <v/>
+      </c>
+      <c r="BG6" s="1" t="n">
         <v>2.96</v>
       </c>
-      <c r="BG6" s="1" t="n">
+      <c r="BH6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="BH6" s="1" t="n"/>
       <c r="BI6" s="1" t="n"/>
+      <c r="BJ6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B7" s="12" t="n"/>
       <c r="C7" s="12" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D7" s="12" t="inlineStr">
@@ -1844,12 +1850,8 @@
           <t>2024-05</t>
         </is>
       </c>
-      <c r="J7" s="12" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="K7" s="12" t="n">
-        <v>-2.999999999999996</v>
-      </c>
+      <c r="J7" s="12" t="n"/>
+      <c r="K7" s="12" t="n"/>
       <c r="L7" s="1" t="n">
         <v/>
       </c>
@@ -1992,21 +1994,24 @@
         <v/>
       </c>
       <c r="BG7" s="1" t="n">
+        <v/>
+      </c>
+      <c r="BH7" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="BH7" s="1" t="n"/>
       <c r="BI7" s="1" t="n"/>
+      <c r="BJ7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B8" s="12" t="n"/>
       <c r="C8" s="12" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D8" s="12" t="inlineStr">
@@ -2031,12 +2036,8 @@
           <t>2024-06</t>
         </is>
       </c>
-      <c r="J8" s="12" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="K8" s="12" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="J8" s="12" t="n"/>
+      <c r="K8" s="12" t="n"/>
       <c r="L8" s="1" t="n">
         <v/>
       </c>
@@ -2181,19 +2182,22 @@
       <c r="BG8" s="1" t="n">
         <v/>
       </c>
-      <c r="BH8" s="1" t="n"/>
+      <c r="BH8" s="1" t="n">
+        <v/>
+      </c>
       <c r="BI8" s="1" t="n"/>
+      <c r="BJ8" s="1" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B9" s="12" t="n"/>
       <c r="C9" s="12" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D9" s="12" t="inlineStr">
@@ -2218,12 +2222,8 @@
           <t>2024-07</t>
         </is>
       </c>
-      <c r="J9" s="12" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K9" s="12" t="n">
-        <v>18.4</v>
-      </c>
+      <c r="J9" s="12" t="n"/>
+      <c r="K9" s="12" t="n"/>
       <c r="L9" s="1" t="n">
         <v/>
       </c>
@@ -2368,19 +2368,22 @@
       <c r="BG9" s="1" t="n">
         <v/>
       </c>
-      <c r="BH9" s="1" t="n"/>
+      <c r="BH9" s="1" t="n">
+        <v/>
+      </c>
       <c r="BI9" s="1" t="n"/>
+      <c r="BJ9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B10" s="12" t="n"/>
       <c r="C10" s="12" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D10" s="12" t="inlineStr">
@@ -2405,12 +2408,8 @@
           <t>2024-08</t>
         </is>
       </c>
-      <c r="J10" s="12" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="K10" s="12" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J10" s="12" t="n"/>
+      <c r="K10" s="12" t="n"/>
       <c r="L10" s="1" t="n">
         <v/>
       </c>
@@ -2555,19 +2554,22 @@
       <c r="BG10" s="1" t="n">
         <v/>
       </c>
-      <c r="BH10" s="1" t="n"/>
+      <c r="BH10" s="1" t="n">
+        <v/>
+      </c>
       <c r="BI10" s="1" t="n"/>
+      <c r="BJ10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B11" s="12" t="n"/>
       <c r="C11" s="12" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D11" s="12" t="inlineStr">
@@ -2592,12 +2594,8 @@
           <t>2024-09</t>
         </is>
       </c>
-      <c r="J11" s="12" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="K11" s="12" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J11" s="12" t="n"/>
+      <c r="K11" s="12" t="n"/>
       <c r="L11" s="1" t="n">
         <v/>
       </c>
@@ -2742,19 +2740,22 @@
       <c r="BG11" s="1" t="n">
         <v/>
       </c>
-      <c r="BH11" s="1" t="n"/>
+      <c r="BH11" s="1" t="n">
+        <v/>
+      </c>
       <c r="BI11" s="1" t="n"/>
+      <c r="BJ11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B12" s="12" t="n"/>
       <c r="C12" s="12" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D12" s="12" t="inlineStr">
@@ -2779,12 +2780,8 @@
           <t>2024-10</t>
         </is>
       </c>
-      <c r="J12" s="12" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K12" s="12" t="n">
-        <v>14.4</v>
-      </c>
+      <c r="J12" s="12" t="n"/>
+      <c r="K12" s="12" t="n"/>
       <c r="L12" s="1" t="n">
         <v/>
       </c>
@@ -2929,19 +2926,22 @@
       <c r="BG12" s="1" t="n">
         <v/>
       </c>
-      <c r="BH12" s="1" t="n"/>
+      <c r="BH12" s="1" t="n">
+        <v/>
+      </c>
       <c r="BI12" s="1" t="n"/>
+      <c r="BJ12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B13" s="12" t="n"/>
       <c r="C13" s="12" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D13" s="12" t="inlineStr">
@@ -2966,12 +2966,8 @@
           <t>2024-11</t>
         </is>
       </c>
-      <c r="J13" s="12" t="n">
-        <v>16</v>
-      </c>
-      <c r="K13" s="12" t="n">
-        <v>16</v>
-      </c>
+      <c r="J13" s="12" t="n"/>
+      <c r="K13" s="12" t="n"/>
       <c r="L13" s="1" t="n">
         <v/>
       </c>
@@ -3116,19 +3112,22 @@
       <c r="BG13" s="1" t="n">
         <v/>
       </c>
-      <c r="BH13" s="1" t="n"/>
+      <c r="BH13" s="1" t="n">
+        <v/>
+      </c>
       <c r="BI13" s="1" t="n"/>
+      <c r="BJ13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ACTUAL</t>
+          <t>Actual</t>
         </is>
       </c>
       <c r="B14" s="12" t="n"/>
       <c r="C14" s="12" t="inlineStr">
         <is>
-          <t>Ongoing task</t>
+          <t>951 - Ongoing task</t>
         </is>
       </c>
       <c r="D14" s="12" t="inlineStr">
@@ -3153,12 +3152,8 @@
           <t>2024-12</t>
         </is>
       </c>
-      <c r="J14" s="12" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K14" s="12" t="n">
-        <v>18.4</v>
-      </c>
+      <c r="J14" s="12" t="n"/>
+      <c r="K14" s="12" t="n"/>
       <c r="L14" s="1" t="n">
         <v/>
       </c>
@@ -3303,8 +3298,11 @@
       <c r="BG14" s="1" t="n">
         <v/>
       </c>
-      <c r="BH14" s="1" t="n"/>
+      <c r="BH14" s="1" t="n">
+        <v/>
+      </c>
       <c r="BI14" s="1" t="n"/>
+      <c r="BJ14" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
